--- a/descargas/abbarules-calculadora.xlsx
+++ b/descargas/abbarules-calculadora.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ADRIAN\#PERSONAL\MINECRAFT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MINECRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB41620-0C2C-46BA-8B9F-9D4BB51F2F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61BD12A-37A4-40E2-8ABF-0E7A8E350AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,8 +101,40 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Carbón</t>
   </si>
@@ -141,9 +173,6 @@
   </si>
   <si>
     <t>Cantidad mena pizarra total</t>
-  </si>
-  <si>
-    <t>Pizarra</t>
   </si>
   <si>
     <t>Lapislázuli</t>
@@ -679,6 +708,15 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,15 +725,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -771,147 +800,79 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>153093</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101685</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>687457</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>445549</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3" descr="Stone – Minecraft Wiki">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07629A61-AE19-A37C-7AF8-811155786829}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="20000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1312658" y="101685"/>
-          <a:ext cx="534364" cy="534364"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>124240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>701375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>452644</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4" descr="Deepslate – Minecraft Wiki">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C99AD62-E981-6F60-AE41-D8726965F630}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId5">
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="20000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1283805" y="2468218"/>
-          <a:ext cx="577135" cy="576883"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+    <v>Stone – Minecraft Wiki</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+    <v>Deepslate – Minecraft Wiki</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1181,7 +1142,7 @@
   <dimension ref="B2:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,7 +1164,9 @@
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="31" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1332,7 +1295,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="13">
         <v>0</v>
@@ -1371,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -1396,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -1411,8 +1374,8 @@
       <c r="B13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>13</v>
+      <c r="C13" s="30" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -1420,7 +1383,7 @@
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="29" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="16">
@@ -1503,7 +1466,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="15">
         <v>0</v>
@@ -1541,15 +1504,15 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
+      <c r="B24" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="24"/>

--- a/descargas/abbarules-calculadora.xlsx
+++ b/descargas/abbarules-calculadora.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MINECRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61BD12A-37A4-40E2-8ABF-0E7A8E350AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49EBD27-18D0-4B11-B6DC-3B808F3BF630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="ABBA RULES" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -106,7 +106,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="14">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -121,43 +121,142 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="14">
     <bk>
       <rc t="1" v="0"/>
     </bk>
     <bk>
       <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
-  <si>
-    <t>Carbón</t>
-  </si>
-  <si>
-    <t>Hierro</t>
-  </si>
-  <si>
-    <t>Oro</t>
-  </si>
-  <si>
-    <t>Cobre</t>
-  </si>
-  <si>
-    <t>Diamante</t>
-  </si>
-  <si>
-    <t>Esmeralda</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Puntos</t>
-  </si>
-  <si>
-    <t>Redstone</t>
   </si>
   <si>
     <t>Total</t>
@@ -169,15 +268,6 @@
     <t>Resto</t>
   </si>
   <si>
-    <t>Cantidad mena piedra total</t>
-  </si>
-  <si>
-    <t>Cantidad mena pizarra total</t>
-  </si>
-  <si>
-    <t>Lapislázuli</t>
-  </si>
-  <si>
     <t>¡¡ SÓLO ESCRIBIR EN LAS CELDAS DE COLOR NARANJA !!</t>
   </si>
   <si>
@@ -186,12 +276,18 @@
   <si>
     <t>Igualmente guapo el que lo lea</t>
   </si>
+  <si>
+    <t>1 bloque crudo = 9 bloques normales</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,21 +298,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -244,33 +325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri Light"/>
@@ -285,11 +339,78 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -313,24 +434,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -343,8 +452,20 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -597,137 +718,227 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="6" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="6" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="20% - Énfasis4" xfId="6" builtinId="42"/>
     <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Incorrecto" xfId="4" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,16 +963,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>679174</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>208308</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>61300</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>208307</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119278</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -790,8 +1001,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8067261" y="0"/>
-          <a:ext cx="6710156" cy="5726604"/>
+          <a:off x="8945217" y="0"/>
+          <a:ext cx="6710155" cy="5726604"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -844,14 +1055,64 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
   <rv s="0">
     <v>0</v>
     <v>5</v>
     <v>Stone – Minecraft Wiki</v>
   </rv>
+  <rv s="1">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>2</v>
+    <v>5</v>
+  </rv>
   <rv s="0">
-    <v>1</v>
+    <v>0</v>
+    <v>4</v>
+    <v>Stone – Minecraft Wiki</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>4</v>
+    <v>Deepslate – Minecraft Wiki</v>
+  </rv>
+  <rv s="1">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>7</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>8</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>9</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>10</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>11</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
     <v>5</v>
     <v>Deepslate – Minecraft Wiki</v>
   </rv>
@@ -859,11 +1120,15 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <s t="_localImage">
     <k n="_rvRel:LocalImageIdentifier" t="i"/>
     <k n="CalcOrigin" t="i"/>
     <k n="Text" t="s"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
   </s>
 </rvStructures>
 </file>
@@ -872,6 +1137,16 @@
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
+  <rel r:id="rId11"/>
+  <rel r:id="rId12"/>
 </richValueRels>
 </file>
 
@@ -1139,424 +1414,515 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B2:O29"/>
+  <dimension ref="B1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="8.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="5" customWidth="1"/>
+    <col min="6" max="9" width="10.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="5" customWidth="1"/>
+    <col min="12" max="13" width="15.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="5"/>
+    <col min="15" max="15" width="9.140625" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="25" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" s="26" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I2"/>
+      <c r="K2" s="6" t="e" vm="4">
+        <f>$C$2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L2" s="7" t="e" vm="5">
+        <f>$C$13</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="35">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27">
+        <v>1</v>
+      </c>
+      <c r="H3" s="27">
+        <v>1</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3" s="31" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" s="11">
+        <f>(D3*64+E3)*B3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <f>(D14*64+E14)*B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="35">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4" s="32" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:K10" si="0">(D4*64+E4)*B4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="12">
+        <f t="shared" ref="L4:L10" si="1">(D15*64+E15)*B15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="35">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <f>G3*B4*9</f>
+        <v>45</v>
+      </c>
+      <c r="H5" s="29">
+        <f>H3*B5*9</f>
+        <v>18</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5" s="32" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="35">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6" s="32" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="35">
+        <v>50</v>
+      </c>
+      <c r="C7" s="8" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7"/>
+      <c r="J7" s="32" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="35">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="40"/>
+      <c r="I8"/>
+      <c r="J8" s="32" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="35">
+        <v>200</v>
+      </c>
+      <c r="C9" s="8" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9"/>
+      <c r="J9" s="32" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="36">
+        <v>500</v>
+      </c>
+      <c r="C10" s="13" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" s="33" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="31" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="2:17" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13"/>
+      <c r="K13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="30">
+        <f>SUM(K3:L10)+G5+H5</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="35">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="19" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="35">
         <v>10</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="22">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17">
-        <f>(D3*64+E3)*B3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="18">
-        <f>(D14*64+E14)*B14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="22">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17">
-        <f t="shared" ref="H4:H10" si="0">(D4*64+E4)*B4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
-        <f t="shared" ref="I4:I10" si="1">(D15*64+E15)*B15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="22">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="22">
+      <c r="C15" s="19" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="35">
+        <v>30</v>
+      </c>
+      <c r="C16" s="19" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="35">
+        <v>50</v>
+      </c>
+      <c r="C17" s="19" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="35">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="22">
-        <v>30</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="22">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="22">
-        <v>200</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="C18" s="19" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="35">
+        <v>50</v>
+      </c>
+      <c r="C19" s="19" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="35">
+        <v>100</v>
+      </c>
+      <c r="C20" s="19" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="36">
+        <v>5000</v>
+      </c>
+      <c r="C21" s="20" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="23">
-        <v>500</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="30" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="16">
-        <f>SUM(H3:I10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="22">
-        <v>50</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="22">
-        <v>5</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="22">
-        <v>10</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="22">
-        <v>20</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="22">
-        <v>30</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="22">
-        <v>20</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="22">
-        <v>100</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="23">
-        <v>1000</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
-    </row>
-    <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-    </row>
-    <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+    </row>
+    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B24:H24"/>
+  <mergeCells count="2">
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="G7:H9"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Elige bien, no es tan difícil" sqref="I16" xr:uid="{6F6E194C-3990-491E-B6F1-9E67D0116268}">
-      <formula1>$K$4:$K$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Elige bien, no es tan difícil" sqref="L16" xr:uid="{6F6E194C-3990-491E-B6F1-9E67D0116268}">
+      <formula1>$M$4:$M$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/descargas/abbarules-calculadora.xlsx
+++ b/descargas/abbarules-calculadora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MINECRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49EBD27-18D0-4B11-B6DC-3B808F3BF630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F354EC53-DEAD-48D6-BC33-F58B54A69698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1417,7 +1417,7 @@
   <dimension ref="B1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,12 +1546,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="28">
-        <f>G3*B4*9</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H5" s="29">
-        <f>H3*B5*9</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="32" t="e" vm="8">
@@ -1735,7 +1733,7 @@
       </c>
       <c r="L13" s="30">
         <f>SUM(K3:L10)+G5+H5</f>
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">

--- a/descargas/abbarules-calculadora.xlsx
+++ b/descargas/abbarules-calculadora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MINECRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F354EC53-DEAD-48D6-BC33-F58B54A69698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17A250D-4875-4DC8-993B-CA6DCDD55998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1416,9 +1416,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1482,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3"/>
       <c r="J3" s="31" t="e" vm="6">
@@ -1546,9 +1544,11 @@
         <v>0</v>
       </c>
       <c r="G5" s="28">
+        <f>G3*B4*9</f>
         <v>0</v>
       </c>
       <c r="H5" s="29">
+        <f>H3*B5*9</f>
         <v>0</v>
       </c>
       <c r="I5"/>

--- a/descargas/abbarules-calculadora.xlsx
+++ b/descargas/abbarules-calculadora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MINECRAFT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17A250D-4875-4DC8-993B-CA6DCDD55998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11CE8F9-737B-4402-ACE3-0D4C6EBB5963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="14">
+  <futureMetadata name="XLRICHVALUE" count="15">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -205,8 +205,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="14">
+  <valueMetadata count="15">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -248,13 +255,16 @@
     </bk>
     <bk>
       <rc t="1" v="13"/>
+    </bk>
+    <bk>
+      <rc t="1" v="14"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Puntos</t>
   </si>
@@ -808,7 +818,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -870,9 +880,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,15 +925,18 @@
     <xf numFmtId="3" fontId="10" fillId="6" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -934,6 +944,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -963,13 +982,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>679174</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>208307</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>119278</xdr:rowOff>
@@ -1055,7 +1074,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="15">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -1069,19 +1088,19 @@
     <v>2</v>
     <v>5</v>
   </rv>
+  <rv s="1">
+    <v>3</v>
+    <v>5</v>
+  </rv>
   <rv s="0">
     <v>0</v>
     <v>4</v>
     <v>Stone – Minecraft Wiki</v>
   </rv>
   <rv s="0">
-    <v>3</v>
+    <v>4</v>
     <v>4</v>
     <v>Deepslate – Minecraft Wiki</v>
-  </rv>
-  <rv s="1">
-    <v>4</v>
-    <v>5</v>
   </rv>
   <rv s="1">
     <v>5</v>
@@ -1111,8 +1130,12 @@
     <v>11</v>
     <v>5</v>
   </rv>
+  <rv s="1">
+    <v>12</v>
+    <v>5</v>
+  </rv>
   <rv s="0">
-    <v>3</v>
+    <v>4</v>
     <v>5</v>
     <v>Deepslate – Minecraft Wiki</v>
   </rv>
@@ -1147,6 +1170,7 @@
   <rel r:id="rId10"/>
   <rel r:id="rId11"/>
   <rel r:id="rId12"/>
+  <rel r:id="rId13"/>
 </richValueRels>
 </file>
 
@@ -1414,7 +1438,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:Q29"/>
+  <dimension ref="B1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -1425,19 +1449,20 @@
     <col min="3" max="3" width="12.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="5" customWidth="1"/>
-    <col min="6" max="9" width="10.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="5" customWidth="1"/>
-    <col min="12" max="13" width="15.7109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="5"/>
-    <col min="15" max="15" width="9.140625" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="10" width="10.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="5" customWidth="1"/>
+    <col min="13" max="14" width="15.7109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="5"/>
+    <col min="16" max="16" width="9.140625" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="I1"/>
-    </row>
-    <row r="2" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="2:18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,27 +1475,30 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="25" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H2" s="26" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I2"/>
-      <c r="K2" s="6" t="e" vm="4">
+      <c r="G2" s="24" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" s="25" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I2" s="25" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J2"/>
+      <c r="L2" s="6" t="e" vm="5">
         <f>$C$2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L2" s="7" t="e" vm="5">
+      <c r="M2" s="7" t="e" vm="6">
         <f>$C$13</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="e" vm="6">
+    <row r="3" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="34">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="D3" s="9">
@@ -1479,62 +1507,68 @@
       <c r="E3" s="10">
         <v>0</v>
       </c>
-      <c r="G3" s="27">
-        <v>0</v>
-      </c>
-      <c r="H3" s="27">
-        <v>0</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3" s="31" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="G3" s="26">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" s="30" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L3" s="11">
         <f>(D3*64+E3)*B3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="12">
+      <c r="M3" s="12">
         <f>(D14*64+E14)*B14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35">
+    <row r="4" spans="2:18" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="34">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" s="31" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" ref="L4:L10" si="0">(D4*64+E4)*B4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
+        <f t="shared" ref="M4:M10" si="1">(D15*64+E15)*B15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="34">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4" s="32" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K4" s="11">
-        <f t="shared" ref="K4:K10" si="0">(D4*64+E4)*B4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <f t="shared" ref="L4:L10" si="1">(D15*64+E15)*B15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8" t="e" vm="8">
+      <c r="C5" s="8" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
       <c r="D5" s="9">
@@ -1543,32 +1577,36 @@
       <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <f>G3*B4*9</f>
         <v>0</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="28">
         <f>H3*B5*9</f>
         <v>0</v>
       </c>
-      <c r="I5"/>
-      <c r="J5" s="32" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="I5" s="28">
+        <f>I3*B6*9</f>
+        <v>0</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" s="31" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="12">
+      <c r="M5" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="35">
+    <row r="6" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="34">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="e" vm="9">
+      <c r="C6" s="8" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="D6" s="9">
@@ -1578,23 +1616,24 @@
         <v>0</v>
       </c>
       <c r="I6"/>
-      <c r="J6" s="32" t="e" vm="9">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="J6"/>
+      <c r="K6" s="31" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L6" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="12">
+      <c r="M6" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35">
+    <row r="7" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34">
         <v>50</v>
       </c>
-      <c r="C7" s="8" t="e" vm="10">
+      <c r="C7" s="8" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
       <c r="D7" s="9">
@@ -1606,25 +1645,26 @@
       <c r="G7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7"/>
-      <c r="J7" s="32" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="H7" s="44"/>
+      <c r="I7" s="38"/>
+      <c r="J7"/>
+      <c r="K7" s="31" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="35">
+    <row r="8" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="34">
         <v>50</v>
       </c>
-      <c r="C8" s="8" t="e" vm="11">
+      <c r="C8" s="8" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
       <c r="D8" s="9">
@@ -1633,26 +1673,27 @@
       <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="40"/>
-      <c r="I8"/>
-      <c r="J8" s="32" t="e" vm="11">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K8" s="11">
+      <c r="G8" s="39"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="40"/>
+      <c r="J8"/>
+      <c r="K8" s="31" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="12">
+      <c r="M8" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35">
+    <row r="9" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="34">
         <v>200</v>
       </c>
-      <c r="C9" s="8" t="e" vm="12">
+      <c r="C9" s="8" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
       <c r="D9" s="9">
@@ -1662,28 +1703,29 @@
         <v>0</v>
       </c>
       <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9"/>
-      <c r="J9" s="32" t="e" vm="12">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="H9" s="45"/>
+      <c r="I9" s="42"/>
+      <c r="J9"/>
+      <c r="K9" s="31" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="12">
+      <c r="M9" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="36">
+    <row r="10" spans="2:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="35">
         <v>500</v>
       </c>
-      <c r="C10" s="13" t="e" vm="13">
+      <c r="C10" s="13" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
       <c r="D10" s="14">
@@ -1693,32 +1735,35 @@
         <v>0</v>
       </c>
       <c r="I10"/>
-      <c r="J10" s="33" t="e" vm="13">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K10" s="16">
+      <c r="J10"/>
+      <c r="K10" s="32" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="17">
+      <c r="M10" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="I11"/>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I12"/>
-    </row>
-    <row r="13" spans="2:17" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="2:18" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="e" vm="14">
+      <c r="C13" s="2" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1728,120 +1773,124 @@
         <v>3</v>
       </c>
       <c r="I13"/>
-      <c r="K13" s="18" t="s">
+      <c r="J13"/>
+      <c r="L13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="30">
-        <f>SUM(K3:L10)+G5+H5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="35">
+      <c r="M13" s="29">
+        <f>SUM(L3:M10)+G5+H5+I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="34">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="19" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="34">
+        <v>20</v>
+      </c>
+      <c r="C15" s="19" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="34">
+        <v>30</v>
+      </c>
+      <c r="C16" s="19" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="34">
+        <v>50</v>
+      </c>
+      <c r="C17" s="19" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="34">
+        <v>20</v>
+      </c>
+      <c r="C18" s="19" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="34">
+        <v>50</v>
+      </c>
+      <c r="C19" s="19" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="34">
+        <v>100</v>
+      </c>
+      <c r="C20" s="19" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="35">
         <v>2000</v>
       </c>
-      <c r="C14" s="19" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="35">
-        <v>10</v>
-      </c>
-      <c r="C15" s="19" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="35">
-        <v>30</v>
-      </c>
-      <c r="C16" s="19" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="35">
-        <v>50</v>
-      </c>
-      <c r="C17" s="19" t="e" vm="9">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="35">
-        <v>20</v>
-      </c>
-      <c r="C18" s="19" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="35">
-        <v>50</v>
-      </c>
-      <c r="C19" s="19" t="e" vm="11">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="35">
-        <v>100</v>
-      </c>
-      <c r="C20" s="19" t="e" vm="12">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="36">
-        <v>5000</v>
-      </c>
-      <c r="C21" s="20" t="e" vm="13">
+      <c r="C21" s="20" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
       <c r="D21" s="14">
@@ -1851,76 +1900,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B24" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-    </row>
-    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="G7:I9"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Elige bien, no es tan difícil" sqref="L16" xr:uid="{6F6E194C-3990-491E-B6F1-9E67D0116268}">
-      <formula1>$M$4:$M$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Elige bien, no es tan difícil" sqref="M16" xr:uid="{6F6E194C-3990-491E-B6F1-9E67D0116268}">
+      <formula1>$N$4:$N$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
